--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3016322.739958962</v>
+        <v>3009396.792877423</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>102.1242129758022</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>134.9366288700187</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>87.70688869720091</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899781</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>96.63087227190211</v>
       </c>
       <c r="W4" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>169.2964215752237</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>252.6668682869264</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899781</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>221.5993449429217</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.728993262559</v>
       </c>
       <c r="V7" t="n">
-        <v>232.4935410711781</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>235.4551847859273</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>70.42393430236268</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2276889092491</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>194.7526909763839</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>300.9267914787031</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>271.4218548920845</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
         <v>61.76140096484032</v>
@@ -1543,7 +1543,7 @@
         <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380425</v>
       </c>
       <c r="I13" t="n">
         <v>37.77220663497643</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>249.5965389372388</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>30.26587136802583</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876317</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380425</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453473</v>
+        <v>20.92391191189566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443485</v>
+        <v>48.81858568179578</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046317</v>
+        <v>67.32610467782411</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074558</v>
+        <v>52.47323292810651</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258531</v>
+        <v>38.04694813994624</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546442</v>
+        <v>37.97339019282535</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523169</v>
+        <v>39.72284161259262</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762382</v>
+        <v>50.54167953498475</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419586</v>
+        <v>37.8939317015568</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536779</v>
+        <v>15.73364728272873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982371</v>
+        <v>6.632145647184643</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535103</v>
+        <v>84.75808915271196</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875392</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>106.3740388304706</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>152.8208635826925</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415644</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443885</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627858</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915769</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892496</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131709</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788913</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906106</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351698</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
         <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>67.0658208182943</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>62.44821631492636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415644</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443885</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627858</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915769</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892496</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131709</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788913</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906106</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351698</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1411.431082523744</v>
+        <v>628.0506498235062</v>
       </c>
       <c r="C2" t="n">
-        <v>1411.431082523744</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="D2" t="n">
-        <v>1411.431082523744</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="E2" t="n">
-        <v>1008.847557640289</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F2" t="n">
-        <v>591.9531191702666</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G2" t="n">
-        <v>178.7903636582698</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703877</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>187.1405114458669</v>
+        <v>497.3961679446633</v>
       </c>
       <c r="L2" t="n">
-        <v>680.4608031643957</v>
+        <v>990.7164596631922</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.283692560251</v>
+        <v>990.7164596631922</v>
       </c>
       <c r="N2" t="n">
-        <v>1684.49732595961</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O2" t="n">
-        <v>2124.536926851938</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851938</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851938</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.536926851938</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>1782.430117555457</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="W2" t="n">
-        <v>1411.431082523744</v>
+        <v>628.0506498235062</v>
       </c>
       <c r="X2" t="n">
-        <v>1411.431082523744</v>
+        <v>628.0506498235062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1411.431082523744</v>
+        <v>628.0506498235062</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>657.7430775364694</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>569.1502606706099</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>302.6148024029779</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512718</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6057207567661</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L3" t="n">
-        <v>639.1718066550794</v>
+        <v>473.352454180576</v>
       </c>
       <c r="M3" t="n">
-        <v>968.0301839896694</v>
+        <v>473.352454180576</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896694</v>
+        <v>883.7630516643744</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297048</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851938</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.36437211095</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609621</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>657.7430775364694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703877</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703877</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703877</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703877</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703877</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703877</v>
+        <v>329.0713023000504</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703877</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>708.2187092468254</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="U4" t="n">
-        <v>422.7799174887263</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="V4" t="n">
-        <v>156.8005723095505</v>
+        <v>720.4374173839616</v>
       </c>
       <c r="W4" t="n">
-        <v>42.49073853703877</v>
+        <v>720.4374173839616</v>
       </c>
       <c r="X4" t="n">
-        <v>42.49073853703877</v>
+        <v>720.4374173839616</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703877</v>
+        <v>497.3253562006049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.4736108778696</v>
+        <v>851.9562446235695</v>
       </c>
       <c r="C5" t="n">
-        <v>235.4736108778696</v>
+        <v>851.9562446235695</v>
       </c>
       <c r="D5" t="n">
-        <v>64.46712443824973</v>
+        <v>466.5151158402373</v>
       </c>
       <c r="E5" t="n">
-        <v>64.46712443824973</v>
+        <v>466.5151158402373</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863154</v>
+        <v>453.6610814106191</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703877</v>
+        <v>57.35656705233481</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>57.35656705233481</v>
       </c>
       <c r="L5" t="n">
-        <v>401.4730945645006</v>
+        <v>550.6768587708636</v>
       </c>
       <c r="M5" t="n">
-        <v>927.2959839603554</v>
+        <v>550.6768587708636</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.309833828088</v>
+        <v>1051.843641766314</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720417</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792989</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="T5" t="n">
-        <v>1734.522769352406</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="U5" t="n">
-        <v>1734.522769352406</v>
+        <v>1507.67004921065</v>
       </c>
       <c r="V5" t="n">
-        <v>1392.415960055924</v>
+        <v>1507.67004921065</v>
       </c>
       <c r="W5" t="n">
-        <v>1021.416925024212</v>
+        <v>1252.450990334966</v>
       </c>
       <c r="X5" t="n">
-        <v>631.9643199572685</v>
+        <v>1252.450990334966</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.4736108778696</v>
+        <v>1252.450990334966</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512718</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6057207567661</v>
+        <v>382.596268668924</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2072945938146</v>
+        <v>382.596268668924</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896694</v>
+        <v>883.7630516643744</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297048</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851938</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1656.005431407688</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1433.465429778755</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1209.627707614188</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1020.320629964199</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>841.0064130397068</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523.8877817093323</v>
+        <v>210.703443832633</v>
       </c>
       <c r="C7" t="n">
-        <v>353.6826637753215</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>198.0495506778363</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>699.7948501951655</v>
       </c>
       <c r="V7" t="n">
-        <v>709.0958004006336</v>
+        <v>433.8155050159897</v>
       </c>
       <c r="W7" t="n">
-        <v>709.0958004006336</v>
+        <v>433.8155050159897</v>
       </c>
       <c r="X7" t="n">
-        <v>709.0958004006336</v>
+        <v>433.8155050159897</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.0958004006336</v>
+        <v>210.703443832633</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>1731.508953764728</v>
       </c>
       <c r="C8" t="n">
-        <v>2127.814985091395</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
         <v>922.895892954585</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.999662844127</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.999662844127</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.999662844127</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1731.508953764728</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.1288174846235</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>206.1288174846235</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>206.1288174846235</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>206.1288174846235</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>206.1288174846235</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -5005,7 +5005,7 @@
         <v>429.2408786679802</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.1288174846235</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1642.069506034397</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.834685824516</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1053.334238328372</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>745.6913947321049</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7376375492709</v>
+        <v>409.4820193635566</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5081,10 +5081,10 @@
         <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2221.78706024859</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.623570458606</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5176,19 +5176,19 @@
         <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,34 +5197,34 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.55596630239</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.438250204169</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>702.2949591117579</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F14" t="n">
-        <v>380.341201928924</v>
+        <v>652.8800066955921</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2977.396464052381</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2730.230336043088</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2454.171982298564</v>
+        <v>2467.273826752684</v>
       </c>
       <c r="X14" t="n">
-        <v>2159.660058518809</v>
+        <v>2172.761902972929</v>
       </c>
       <c r="Y14" t="n">
-        <v>1858.110030726599</v>
+        <v>1871.211875180718</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798491</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
@@ -5443,16 +5443,16 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924312</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,19 +5917,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.46733722469</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,13 +6148,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
@@ -6163,7 +6163,7 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
@@ -6212,52 +6212,52 @@
         <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142182</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061515</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.472264835669</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>701.1365085742315</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414153</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6376,22 +6376,22 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286446</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6446,13 +6446,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,7 +6491,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>701.1365085742315</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267647</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>598.6915723973032</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1092.011864115832</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1638.012764160413</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2165.824047797875</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690203</v>
+        <v>2601.975468713938</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462111</v>
+        <v>2950.16296084546</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243445</v>
+        <v>3249.878056474707</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448546</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281049</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="K33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="L33" t="n">
-        <v>68.54262738304543</v>
+        <v>550.1163006429422</v>
       </c>
       <c r="M33" t="n">
-        <v>696.3142770097267</v>
+        <v>1177.887950269623</v>
       </c>
       <c r="N33" t="n">
-        <v>1352.092248220286</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="O33" t="n">
-        <v>1868.612530811267</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2274.233899527664</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590197</v>
+        <v>341.6872565554784</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229131</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233319</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804386</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913156</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886653</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806341</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="K34" t="n">
-        <v>258.8681761333731</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>531.4863236475587</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>826.2684096262085</v>
+        <v>613.6740095549331</v>
       </c>
       <c r="N34" t="n">
-        <v>1117.948551297804</v>
+        <v>810.7134513543721</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245665</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022243</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392294</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448273</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279004</v>
+        <v>798.6106513157163</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569822</v>
+        <v>632.4821015969587</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378694</v>
+        <v>515.6036317300067</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524169</v>
+        <v>409.6934228967149</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1345.668748541356</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O36" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,10 +7093,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446697</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
         <v>442.7178209184696</v>
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>689.8907773307967</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1345.668748541356</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O39" t="n">
-        <v>1862.189031132337</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="P39" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1586.170216899326</v>
+        <v>1812.812015342702</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.43596739239</v>
+        <v>1517.077765835765</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.436090599191</v>
+        <v>1229.077889042566</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058686</v>
+        <v>923.9356161492442</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259792</v>
+        <v>604.4824296693553</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>288.7609261474917</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2998.507861134594</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2998.507861134594</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2753.842303828245</v>
+        <v>2861.290827899428</v>
       </c>
       <c r="W41" t="n">
-        <v>2480.284520786666</v>
+        <v>2706.926319230041</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.273167709855</v>
+        <v>2414.914966153231</v>
       </c>
       <c r="Y41" t="n">
-        <v>1889.22371062059</v>
+        <v>2115.865509063965</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344866</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.816506090609</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832569</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325926</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690448</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822075</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676789</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022416</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160351</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822774</v>
+        <v>1125.300133837541</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1383.507071954778</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1598.885408806887</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155762</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288782</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356548</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1586.170216899326</v>
+        <v>1853.707880260104</v>
       </c>
       <c r="C44" t="n">
-        <v>1290.43596739239</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1002.436090599191</v>
+        <v>1269.973753959968</v>
       </c>
       <c r="E44" t="n">
-        <v>697.2938177058683</v>
+        <v>964.8314810666462</v>
       </c>
       <c r="F44" t="n">
-        <v>377.8406312259792</v>
+        <v>645.3782945867572</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2821.585557180058</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2753.842303828245</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2480.284520786666</v>
+        <v>2444.76869042618</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.273167709856</v>
+        <v>2152.75733734937</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.22371062059</v>
+        <v>1853.707880260104</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344866</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.816506090609</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832569</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325926</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690448</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016744091</v>
+        <v>68.23195016743975</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529123</v>
+        <v>245.5691623529112</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022416</v>
+        <v>505.1989733022405</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160351</v>
+        <v>786.9927227160341</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O46" t="n">
         <v>1323.891465940011</v>
@@ -7825,31 +7825,31 @@
         <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155762</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288782</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356548</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>458.4604932168262</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107118</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>632.1625654785512</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>424.5673011751604</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>499.9282719287105</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>134.7083643602376</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107118</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>562.2637942344837</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>321.3562666049731</v>
       </c>
       <c r="M6" t="n">
-        <v>381.8836612786538</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671512</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>312.0396197609155</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>288.3536975034276</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>319.0197961262124</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,25 +9480,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056833</v>
+        <v>410.5599720504884</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,7 +9732,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,22 +9951,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>624.8237719316264</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>403.0555909136999</v>
       </c>
       <c r="N30" t="n">
-        <v>624.8237719316264</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,22 +10431,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>658.1108392979579</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,13 +10899,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>292.8810966026122</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>543.8532815002535</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>14.11306200385727</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.11267262220392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.486899575160351e-13</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>45.65593307054338</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>243.0318988390531</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.538708137538961e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.486906268228</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812812</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>18.42471811547509</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>156.7283627995155</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>118.001341628471</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.486906268228</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812812</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>175.1530809149907</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>208.3739888962372</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612774.2838042681</v>
+        <v>612774.2838042682</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612774.2838042681</v>
+        <v>612774.2838042682</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>613129.4055174132</v>
       </c>
       <c r="C2" t="n">
+        <v>613129.4055174135</v>
+      </c>
+      <c r="D2" t="n">
         <v>613129.4055174134</v>
       </c>
-      <c r="D2" t="n">
-        <v>613129.405517413</v>
-      </c>
       <c r="E2" t="n">
-        <v>576218.8171230101</v>
+        <v>576218.8171230099</v>
       </c>
       <c r="F2" t="n">
-        <v>576218.8171230102</v>
+        <v>576218.8171230098</v>
       </c>
       <c r="G2" t="n">
-        <v>613129.4055174127</v>
+        <v>613129.4055174128</v>
       </c>
       <c r="H2" t="n">
         <v>613129.4055174127</v>
       </c>
       <c r="I2" t="n">
-        <v>613129.4055174128</v>
+        <v>613129.4055174126</v>
       </c>
       <c r="J2" t="n">
-        <v>613129.4055174135</v>
+        <v>613129.4055174127</v>
       </c>
       <c r="K2" t="n">
-        <v>613129.4055174132</v>
+        <v>613129.405517413</v>
       </c>
       <c r="L2" t="n">
-        <v>613129.4055174139</v>
+        <v>613129.4055174142</v>
       </c>
       <c r="M2" t="n">
         <v>613129.4055174126</v>
       </c>
       <c r="N2" t="n">
-        <v>613129.405517413</v>
+        <v>613129.4055174128</v>
       </c>
       <c r="O2" t="n">
-        <v>578731.2680373655</v>
+        <v>578731.2680373659</v>
       </c>
       <c r="P2" t="n">
-        <v>578731.2680373653</v>
+        <v>578731.2680373654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602672</v>
+        <v>26460.41160941824</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670125</v>
+        <v>46725.80335481252</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015678</v>
+        <v>18983.55983015679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704044</v>
@@ -26439,25 +26439,25 @@
         <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
-        <v>122593.9044797028</v>
+        <v>122593.9044797027</v>
       </c>
       <c r="K4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
+        <v>121843.4120153197</v>
+      </c>
+      <c r="N4" t="n">
         <v>121843.4120153196</v>
       </c>
-      <c r="N4" t="n">
-        <v>121843.4120153197</v>
-      </c>
       <c r="O4" t="n">
-        <v>98913.70727082902</v>
+        <v>98913.70727082909</v>
       </c>
       <c r="P4" t="n">
-        <v>98913.70727082902</v>
+        <v>98913.70727082909</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391949</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198621.9986065316</v>
+        <v>201770.3491933057</v>
       </c>
       <c r="C6" t="n">
-        <v>376617.2957408824</v>
+        <v>371419.3550698559</v>
       </c>
       <c r="D6" t="n">
-        <v>370473.7367838089</v>
+        <v>362737.4475604177</v>
       </c>
       <c r="E6" t="n">
-        <v>293414.5051045511</v>
+        <v>293305.9445504498</v>
       </c>
       <c r="F6" t="n">
-        <v>423867.4362422634</v>
+        <v>423758.8756881619</v>
       </c>
       <c r="G6" t="n">
         <v>404021.2683135591</v>
@@ -26540,28 +26540,28 @@
         <v>433116.2241865734</v>
       </c>
       <c r="I6" t="n">
+        <v>433116.2241865732</v>
+      </c>
+      <c r="J6" t="n">
+        <v>211546.8659913972</v>
+      </c>
+      <c r="K6" t="n">
+        <v>426876.4557837908</v>
+      </c>
+      <c r="L6" t="n">
+        <v>383933.2716407314</v>
+      </c>
+      <c r="M6" t="n">
+        <v>389333.2522410165</v>
+      </c>
+      <c r="N6" t="n">
         <v>433116.2241865735</v>
       </c>
-      <c r="J6" t="n">
-        <v>205030.5808368248</v>
-      </c>
-      <c r="K6" t="n">
-        <v>426876.4557837909</v>
-      </c>
-      <c r="L6" t="n">
-        <v>387982.1088512033</v>
-      </c>
-      <c r="M6" t="n">
-        <v>390384.9472522048</v>
-      </c>
-      <c r="N6" t="n">
-        <v>433116.2241865737</v>
-      </c>
       <c r="O6" t="n">
-        <v>405513.593153829</v>
+        <v>405412.4221612409</v>
       </c>
       <c r="P6" t="n">
-        <v>424497.1529839856</v>
+        <v>424395.9819913972</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880679</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087656</v>
+        <v>58.40725419351566</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165929</v>
+        <v>14.33013548902022</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769597</v>
+        <v>23.72944978769598</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651687</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559188</v>
+        <v>646.8007142757122</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455252</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651687</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,25 +27379,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>287.1195335062965</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>185.9055910591555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>61.44079943830779</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.6672101940828</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>166.6886794554819</v>
       </c>
       <c r="W4" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>212.2902959202753</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>114.622176394469</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.6672101940828</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>6.216728465124334</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27828,10 +27828,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>42.85541057795908</v>
       </c>
       <c r="V7" t="n">
-        <v>30.82601065620594</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>153.7885616961714</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>268.2618069011541</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>9.343824452299827</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.12824959513918</v>
       </c>
     </row>
     <row r="11">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28989,22 +28989,22 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,16 +29229,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29551,10 +29551,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.78466270501798</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>24.86974620214005</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539251</v>
+        <v>13.98970481639364</v>
       </c>
       <c r="O34" t="n">
-        <v>28.92237465267985</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
-        <v>28.01250026485243</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>36.2490556169322</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023182</v>
+        <v>36.24905561693122</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561693219</v>
+        <v>36.24905561693101</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
   </sheetData>
@@ -32008,7 +32008,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -32242,7 +32242,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>315.4020900375888</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129846</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0440741407671</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>332.1801791258484</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>414.5561590745438</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>17.02852641789147</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129846</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>413.1453028966997</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>231.2959197480549</v>
       </c>
       <c r="M6" t="n">
-        <v>289.4965392293419</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129846</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327782</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>162.9211284231314</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>198.2933506465093</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O18" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133855</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,22 +36285,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563714</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,7 +36452,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>539.4516590774598</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,10 +36847,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>310.668468864388</v>
       </c>
       <c r="N30" t="n">
-        <v>539.4516590774598</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>389.3931031367976</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>469.3541915479263</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605128</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649842</v>
+        <v>302.7425208376233</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659181</v>
+        <v>78.41684924923088</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>572.7387264437913</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,22 +37227,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.248029040735</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288839</v>
+        <v>199.0297391913524</v>
       </c>
       <c r="O34" t="n">
-        <v>193.2706241897587</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
-        <v>192.3607498019313</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807274</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>202.0345504389522</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
@@ -37956,7 +37956,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.9236034803843</v>
+        <v>39.70581962708371</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144773118</v>
+        <v>6.174568144771941</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
@@ -38193,7 +38193,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.9236034803843</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
